--- a/conversation_data1.xlsx
+++ b/conversation_data1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="304">
   <si>
     <t>Topic</t>
   </si>
@@ -45,24 +45,6 @@
     <t>Nice to meet you too.</t>
   </si>
   <si>
-    <t>Good morning! How is your day starting?</t>
-  </si>
-  <si>
-    <t>How is it going?</t>
-  </si>
-  <si>
-    <t>Long time no see. How are you?</t>
-  </si>
-  <si>
-    <t>How is your family?</t>
-  </si>
-  <si>
-    <t>Everyone is doing well, thank you.</t>
-  </si>
-  <si>
-    <t>Tamil Greetings</t>
-  </si>
-  <si>
     <t>நீங்கள் எப்படி இருக்கிறீர்கள்?</t>
   </si>
   <si>
@@ -75,39 +57,12 @@
     <t>எனக்கும் உங்களை சந்தித்ததில் மகிழ்ச்சி.</t>
   </si>
   <si>
-    <t>காலை வணக்கம்! உங்கள் நாள் எப்படி தொடங்குகிறது?</t>
-  </si>
-  <si>
-    <t>நன்றாக தொடங்கியுள்ளது. நன்றி.</t>
-  </si>
-  <si>
-    <t>எப்படி போகிறது?</t>
-  </si>
-  <si>
-    <t>மிக நன்றாக போகிறது, நன்றி.</t>
-  </si>
-  <si>
-    <t>நீண்ட நாட்களாக காணவில்லை. நீங்கள் எப்படி இருக்கிறீர்கள்?</t>
-  </si>
-  <si>
-    <t>ஆம், கொஞ்ச காலமாகிறது. நான் நன்றாக இருக்கிறேன்.</t>
-  </si>
-  <si>
-    <t>உங்கள் குடும்பம் எப்படி இருக்கிறது?</t>
-  </si>
-  <si>
-    <t>எல்லோரும் நன்றாக இருக்கிறார்கள், நன்றி.</t>
-  </si>
-  <si>
     <t>Question_Translation</t>
   </si>
   <si>
     <t>Answer_Translation</t>
   </si>
   <si>
-    <t>It has started well. Thank you.</t>
-  </si>
-  <si>
     <t>Question_Pronounce</t>
   </si>
   <si>
@@ -126,34 +81,856 @@
     <t>एनक्कुम उन्गलै संधित्तदिल मगिऴच्चि.</t>
   </si>
   <si>
-    <t>कालै वणक्कम! उन्गल नाल एप्पडी तोडंगुगिरदु?</t>
-  </si>
-  <si>
-    <t>नन्द्रागा तोडंगियुल्लदु. नन्द्री.</t>
-  </si>
-  <si>
-    <t>एप्पडी पोगिरदु?</t>
-  </si>
-  <si>
-    <t>मिक नन्द्रागा पोगिरदु, नन्द्री.</t>
-  </si>
-  <si>
-    <t>It is going very well, thank you.</t>
-  </si>
-  <si>
-    <t>नींड नाट्कलागा कानविल्लै. नींगल एप्पडी इरुक्किरीर्गल?</t>
-  </si>
-  <si>
-    <t>आम, कोञ्ज कालमागिरदु. नान नन्द्रागा इरुक्किरेन.</t>
-  </si>
-  <si>
-    <t>Yes, it’s been a while. I am fine.</t>
-  </si>
-  <si>
-    <t>उन्गल कुदुंबम एप्पडी इरुक्किरदु?</t>
-  </si>
-  <si>
-    <t>एल्‍लोरुम नन्द्रागा इरुक्किरार्गल, नन्द्री.</t>
+    <t>Greetings</t>
+  </si>
+  <si>
+    <t>How are you doing today?</t>
+  </si>
+  <si>
+    <t>I am doing well today. Thanks for asking.</t>
+  </si>
+  <si>
+    <t>இன்று நீங்கள் எப்படி இருக்கிறீர்கள்?</t>
+  </si>
+  <si>
+    <t>How have you been?</t>
+  </si>
+  <si>
+    <t>I have been good. What about you?</t>
+  </si>
+  <si>
+    <t>इन्द्रु नींगल एप्पडी इरुक्किरीर्गल?</t>
+  </si>
+  <si>
+    <t>நான் இன்று நன்றாக இருக்கிறேன். கேட்டதற்கு நன்றி.</t>
+  </si>
+  <si>
+    <t>नान इन्द्रु नन्द्रागा इरुक्किरेन. केट्टदर्कु नन्द्री.</t>
+  </si>
+  <si>
+    <t>சமீபத்தில் எப்படி இருந்தீர்கள்?</t>
+  </si>
+  <si>
+    <t>நான் நன்றாக இருந்தேன். நீங்கள் எப்படி?</t>
+  </si>
+  <si>
+    <t>समீबत्तिल एप्पडी इरुन्दीर्गल?</t>
+  </si>
+  <si>
+    <t>नान नन्द्रागा इरुन्देन. नींगल एप्पडी?</t>
+  </si>
+  <si>
+    <t>காலை வணக்கம்!</t>
+  </si>
+  <si>
+    <t>कालै वणक्कम!</t>
+  </si>
+  <si>
+    <t>Good morning!</t>
+  </si>
+  <si>
+    <t>மதிய வணக்கம்!</t>
+  </si>
+  <si>
+    <t>मधिय वणक्कम!</t>
+  </si>
+  <si>
+    <t>Good afternoon!</t>
+  </si>
+  <si>
+    <t>மாலை வணக்கம்!</t>
+  </si>
+  <si>
+    <t>मालै वणक्कम!</t>
+  </si>
+  <si>
+    <t>Good evening!</t>
+  </si>
+  <si>
+    <t>உங்கள் நாள் எப்படி தொடங்குகிறது?</t>
+  </si>
+  <si>
+    <t>நன்றாக தொடங்குகிறது.</t>
+  </si>
+  <si>
+    <t>उन्गल नाल एप्पडी तोडंगुदु?</t>
+  </si>
+  <si>
+    <t>नन्द्रागा तोडंगुदु.</t>
+  </si>
+  <si>
+    <t>How is your day starting?</t>
+  </si>
+  <si>
+    <t>It’s starting well.</t>
+  </si>
+  <si>
+    <t>உங்கள் நாள் எப்படி இருந்தது?</t>
+  </si>
+  <si>
+    <t>நல்லதாக இருந்தது.</t>
+  </si>
+  <si>
+    <t>उन्गल नाल एप्पडी इरुन्ददु?</t>
+  </si>
+  <si>
+    <t>नल्लदागा इरुन्ददु.</t>
+  </si>
+  <si>
+    <t>How was your day?</t>
+  </si>
+  <si>
+    <t>It was good.</t>
+  </si>
+  <si>
+    <t>என்ன விஷயம்?</t>
+  </si>
+  <si>
+    <t>அதிகம் ஒன்றுமில்லை.</t>
+  </si>
+  <si>
+    <t>एन्न विषियम?</t>
+  </si>
+  <si>
+    <t>अधिकम ओन्रुमिल्लै.</t>
+  </si>
+  <si>
+    <t>What’s up?</t>
+  </si>
+  <si>
+    <t>Nothing much.</t>
+  </si>
+  <si>
+    <t>Daily Life</t>
+  </si>
+  <si>
+    <t>நீங்கள் பொதுவாக எத்தனை மணிக்கு எழுந்திருப்பீர்கள்?</t>
+  </si>
+  <si>
+    <t>நான் பொதுவாக காலை 6:30 மணிக்கு எழுந்திருப்பேன்.</t>
+  </si>
+  <si>
+    <t>नींगल पोदुवागा एत्तनै मणिक्कु एऴुन्दिरुप्पीर्गल?</t>
+  </si>
+  <si>
+    <t>नान पोदुवागा कालै 6:30 मणिक्कु एऴुन्दिरुप्पेन.</t>
+  </si>
+  <si>
+    <t>What time do you usually wake up?</t>
+  </si>
+  <si>
+    <t>I usually wake up at 6:30 in the morning.</t>
+  </si>
+  <si>
+    <t>எழுந்த பிறகு முதலில் என்ன செய்வீர்கள்?</t>
+  </si>
+  <si>
+    <t>நான் முதலில் பல் துலக்கி கைபேசியை பார்க்கிறேன்.</t>
+  </si>
+  <si>
+    <t>एऴुन्द पिरगु मुदलिल एन्न सेय्वीर्गल?</t>
+  </si>
+  <si>
+    <t>नान मुदलिल पल्ल तुळक्कि कैबेसियै पार्क्किरेन.</t>
+  </si>
+  <si>
+    <t>What is the first thing you do after waking up?</t>
+  </si>
+  <si>
+    <t>I brush my teeth and check my phone.</t>
+  </si>
+  <si>
+    <t>நீங்கள் உங்கள் நாளை எப்படி தொடங்குவீர்கள்?</t>
+  </si>
+  <si>
+    <t>ஒரு கப் தேநீருடன் என் நாளை தொடங்குவேன்.</t>
+  </si>
+  <si>
+    <t>नींगल उन्गल नालै एप्पडी तोडंगुवीर्गल?</t>
+  </si>
+  <si>
+    <t>ओरु कप तेनीरुडन एन नालै तोडंगुवेन.</t>
+  </si>
+  <si>
+    <t>How do you start your day?</t>
+  </si>
+  <si>
+    <t>I start my day with a cup of tea.</t>
+  </si>
+  <si>
+    <t>நீங்கள் பொதுவாக காலை உணவுக்கு என்ன சாப்பிடுவீர்கள்?</t>
+  </si>
+  <si>
+    <t>நான் பொதுவாக ரொட்டி மற்றும் முட்டை சாப்பிடுவேன்.</t>
+  </si>
+  <si>
+    <t>नींगल पोदुवागा कालै उनवुक्कु एन्न साप्पिडुवीर्गल?</t>
+  </si>
+  <si>
+    <t>नान पोदुवागा रोट्टि मऱ्रुम मुट्टै साप्पिडुवेन.</t>
+  </si>
+  <si>
+    <t>What do you usually eat for breakfast?</t>
+  </si>
+  <si>
+    <t>I usually have bread and eggs for breakfast.</t>
+  </si>
+  <si>
+    <t>நீங்கள் வேலைக்கு அல்லது பள்ளிக்கு எப்படி செல்கிறீர்கள்?</t>
+  </si>
+  <si>
+    <t>நான் பெரும்பாலும் பேருந்தில் செல்கிறேன்.</t>
+  </si>
+  <si>
+    <t>नींगल वेलैक्कु अल्लदु पल्लिक्कु एप्पडी सेल्गिरीर्गल?</t>
+  </si>
+  <si>
+    <t>नान पेरुम्बालुम पेरुन्दिल सेल्गिरेन.</t>
+  </si>
+  <si>
+    <t>How do you go to work or school?</t>
+  </si>
+  <si>
+    <t>I go by bus most of the time.</t>
+  </si>
+  <si>
+    <t>உங்கள் வேலை இடத்துக்கு செல்ல எவ்வளவு நேரம் ஆகும்?</t>
+  </si>
+  <si>
+    <t>சுமார் 30 நிமிடங்கள் ஆகும்.</t>
+  </si>
+  <si>
+    <t>उन्गल वेलै इडत्तुक्कु सेल्ल एव्वळवु नेरम आगुम?</t>
+  </si>
+  <si>
+    <t>सुमार 30 निमिडंगल आगुम.</t>
+  </si>
+  <si>
+    <t>How long does it take to reach your workplace?</t>
+  </si>
+  <si>
+    <t>It takes about 30 minutes.</t>
+  </si>
+  <si>
+    <t>மதிய உணவு இடைவேளையில் என்ன செய்வீர்கள்?</t>
+  </si>
+  <si>
+    <t>நான் சாப்பிட்டு என் சக ஊழியர்களுடன் பேசுவேன்.</t>
+  </si>
+  <si>
+    <t>मधिय उनवु इडैवेलैयिल एन्न सेय्वीर्गल?</t>
+  </si>
+  <si>
+    <t>नान साप्पिट्टु एन सह ऊऴियरगलुडन पेसुवेन.</t>
+  </si>
+  <si>
+    <t>What do you do during your lunch break?</t>
+  </si>
+  <si>
+    <t>I eat lunch and talk with my colleagues.</t>
+  </si>
+  <si>
+    <t>நீங்கள் எந்த நேரத்தில் வேலையை முடிப்பீர்கள்?</t>
+  </si>
+  <si>
+    <t>நான் பொதுவாக மாலை 6 மணிக்கு முடிப்பேன்.</t>
+  </si>
+  <si>
+    <t>नींगल एन्द नेरत्तिल वेलैयै मुडिप्पीर्गल?</t>
+  </si>
+  <si>
+    <t>नान पोदुवागा मालै 6 मणिक्कु मुडिप्पेन.</t>
+  </si>
+  <si>
+    <t>What time do you finish work?</t>
+  </si>
+  <si>
+    <t>I usually finish work around 6 PM.</t>
+  </si>
+  <si>
+    <t>வீட்டுக்கு வந்த பிறகு என்ன செய்வீர்கள்?</t>
+  </si>
+  <si>
+    <t>நான் ஓய்வெடுத்து குடும்பத்துடன் நேரம் செலவிடுவேன்.</t>
+  </si>
+  <si>
+    <t>वीट्टुक्कु वन्द पिरगु एन्न सेय्वीर्गल?</t>
+  </si>
+  <si>
+    <t>नान ओय्वेडुत्तु कुडुम्बत्तुडन नेरम सेलविटुवेन.</t>
+  </si>
+  <si>
+    <t>What do you do after coming home?</t>
+  </si>
+  <si>
+    <t>I relax and spend time with my family.</t>
+  </si>
+  <si>
+    <t>நீங்கள் নিয়மமாக உடற்பயிற்சி செய்வீர்களா?</t>
+  </si>
+  <si>
+    <t>ஆமாம், வாரத்திற்கு குறைந்தது மூன்று முறை செய்கிறேன்.</t>
+  </si>
+  <si>
+    <t>नींगल नियममागा उडर्पयिर्चि सेय्वीर्गला?</t>
+  </si>
+  <si>
+    <t>आमाम, वारत्तिर्कु कुरैन्ददु मून्द्रु मुरै सेय्गिरेन.</t>
+  </si>
+  <si>
+    <t>Do you exercise regularly?</t>
+  </si>
+  <si>
+    <t>Yes, I try to exercise at least three times a week.</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>உங்களுக்கு பயணம் செய்வது பிடிக்குமா?</t>
+  </si>
+  <si>
+    <t>ஆம், எனக்கு பயணம் செய்வது மிகவும் பிடிக்கும்.</t>
+  </si>
+  <si>
+    <t>उन्गलुक्कु पयनम सेय्वदु पिडिक्कुमा?</t>
+  </si>
+  <si>
+    <t>आम, एनक्कु पयनम सेय्वदु मिगवुम पिडिक्कुम.</t>
+  </si>
+  <si>
+    <t>Do you like traveling?</t>
+  </si>
+  <si>
+    <t>Yes, I really enjoy traveling.</t>
+  </si>
+  <si>
+    <t>நீங்கள் வேறு நகரத்திற்கு பயணம் செய்துள்ளீர்களா?</t>
+  </si>
+  <si>
+    <t>ஆம், நான் பல நகரங்களுக்கு சென்றுள்ளேன்.</t>
+  </si>
+  <si>
+    <t>नींगल वेरु नगरत्तिर्कु पयनम सेय्दुल्लीर्गला?</t>
+  </si>
+  <si>
+    <t>आम, नान पल नगरंगलुक्कु सेन्द्रुल्लेन.</t>
+  </si>
+  <si>
+    <t>Have you ever traveled to another city?</t>
+  </si>
+  <si>
+    <t>Yes, I have visited many cities.</t>
+  </si>
+  <si>
+    <t>நீங்கள் வெளிநாட்டிற்கு பயணம் செய்துள்ளீர்களா?</t>
+  </si>
+  <si>
+    <t>ஆம், ஒரு முறை வெளிநாடு சென்றுள்ளேன்.</t>
+  </si>
+  <si>
+    <t>नींगल वेलिनाट्टिर्कु पयनम सेय्दुल्लीर्गला?</t>
+  </si>
+  <si>
+    <t>आम, ओरु मुरै वेलिनाडु सेन्द्रुल्लेन.</t>
+  </si>
+  <si>
+    <t>Have you ever traveled abroad?</t>
+  </si>
+  <si>
+    <t>Yes, I have traveled abroad once.</t>
+  </si>
+  <si>
+    <t>உங்கள் கடைசி பயணம் எங்கு இருந்தது?</t>
+  </si>
+  <si>
+    <t>என் கடைசி பயணம் கோவாவிற்கு இருந்தது.</t>
+  </si>
+  <si>
+    <t>उन्गल कडैसी पयनम एंगु इरुन्ददु?</t>
+  </si>
+  <si>
+    <t>एन कडैसी पयनम गोवाविर्कु इरुन्ददु.</t>
+  </si>
+  <si>
+    <t>Where was your last trip?</t>
+  </si>
+  <si>
+    <t>My last trip was to Goa.</t>
+  </si>
+  <si>
+    <t>நீங்கள் பொதுவாக ரயிலில் அல்லது விமானத்தில் பயணம் செய்வீர்களா?</t>
+  </si>
+  <si>
+    <t>நான் பொதுவாக ரயிலில் பயணம் செய்வதை விரும்புகிறேன்.</t>
+  </si>
+  <si>
+    <t>नींगल पोदुवागा रयिलिल अल्लदु विमानत्तिल पयनम सेय्वीर्गला?</t>
+  </si>
+  <si>
+    <t>नान पोदुवागा रयिलिल पयनम सेय्वदै विरुम्बुगिरेन.</t>
+  </si>
+  <si>
+    <t>How do you usually travel, by train or plane?</t>
+  </si>
+  <si>
+    <t>I usually prefer traveling by train.</t>
+  </si>
+  <si>
+    <t>நீங்கள் பொதுவாக யாருடன் பயணம் செய்வீர்கள்?</t>
+  </si>
+  <si>
+    <t>நான் பொதுவாக என் குடும்பத்துடன் பயணம் செய்வேன்.</t>
+  </si>
+  <si>
+    <t>नींगल पोदुवागा यारुडन पयनम सेय्वीर्गल?</t>
+  </si>
+  <si>
+    <t>नान पोदुवागा एन कुडुम्बत्तुडन पयनम सेय्वेन.</t>
+  </si>
+  <si>
+    <t>Who do you usually travel with?</t>
+  </si>
+  <si>
+    <t>I usually travel with my family.</t>
+  </si>
+  <si>
+    <t>உங்கள் கடைசி விடுமுறை எத்தனை நாட்கள் இருந்தது?</t>
+  </si>
+  <si>
+    <t>அது ஐந்து நாட்கள் விடுமுறை.</t>
+  </si>
+  <si>
+    <t>उन्गल कडैसी विडुमुरै एत्तनै नाट्कल इरुन्ददु?</t>
+  </si>
+  <si>
+    <t>अदु ऐन्दु नाट्कल विडुमुरै.</t>
+  </si>
+  <si>
+    <t>How long was your last vacation?</t>
+  </si>
+  <si>
+    <t>It was a five-day vacation.</t>
+  </si>
+  <si>
+    <t>பயணம் செய்வதில் உங்களுக்கு அதிகம் பிடிப்பது என்ன?</t>
+  </si>
+  <si>
+    <t>புதிய இடங்களையும் கலாச்சாரங்களையும் ஆராய்வது பிடிக்கும்.</t>
+  </si>
+  <si>
+    <t>पयनम सेय्वदिल उन्गलुक्कु अदिगम पिडिप्पदु एन्न?</t>
+  </si>
+  <si>
+    <t>पुदिय इडंगलैयुम कलाच्चारंगलैयुम आराय्वदु पिडिक्कुम.</t>
+  </si>
+  <si>
+    <t>What do you like most about traveling?</t>
+  </si>
+  <si>
+    <t>I like exploring new places and cultures.</t>
+  </si>
+  <si>
+    <t>உங்கள் விருப்பமான பயண இடம் எது?</t>
+  </si>
+  <si>
+    <t>மலைப்பகுதிகள் என் விருப்பமான இடம்.</t>
+  </si>
+  <si>
+    <t>उन्गल विरुप्पमान पयन इडम एदु?</t>
+  </si>
+  <si>
+    <t>मलैप्पगुदिगल एन विरुप्पमान इडम.</t>
+  </si>
+  <si>
+    <t>What is your favorite travel destination?</t>
+  </si>
+  <si>
+    <t>My favorite destination is the mountains.</t>
+  </si>
+  <si>
+    <t>நீங்கள் தனியாக பயணம் செய்வதை விரும்புகிறீர்களா அல்லது மற்றவர்களுடன்?</t>
+  </si>
+  <si>
+    <t>நான் நண்பர்கள் அல்லது குடும்பத்துடன் பயணம் செய்வதை விரும்புகிறேன்.</t>
+  </si>
+  <si>
+    <t>नींगल तनियागा पयनम सेय्वदै विरुम्बुगिरीर्गला अल्लदु मऱ्रवर्गलुडन?</t>
+  </si>
+  <si>
+    <t>नान नण्बर्गल अल्लदु कुडुम्बत्तुडन पयनम सेय्वदै विरुम्बुगिरेन.</t>
+  </si>
+  <si>
+    <t>Do you like traveling alone or with others?</t>
+  </si>
+  <si>
+    <t>I prefer traveling with friends or family.</t>
+  </si>
+  <si>
+    <t>Work &amp; Career</t>
+  </si>
+  <si>
+    <t>நீங்கள் என்ன வேலை செய்கிறீர்கள்?</t>
+  </si>
+  <si>
+    <t>நான் ஒரு மென்பொருள் பொறியாளராக வேலை செய்கிறேன்.</t>
+  </si>
+  <si>
+    <t>नींगल एन्न वेलै सेय्गिरीर्गल?</t>
+  </si>
+  <si>
+    <t>नान ओरु मेन्बोरुल पोऱियालरागा वेलै सेय्गिरेन.</t>
+  </si>
+  <si>
+    <t>What do you do for a living?</t>
+  </si>
+  <si>
+    <t>I work as a software engineer.</t>
+  </si>
+  <si>
+    <t>நீங்கள் எங்கு வேலை செய்கிறீர்கள்?</t>
+  </si>
+  <si>
+    <t>நான் ஒரு தனியார் நிறுவனத்தில் வேலை செய்கிறேன்.</t>
+  </si>
+  <si>
+    <t>नींगल एंगु वेलै सेय्गिरीर्गल?</t>
+  </si>
+  <si>
+    <t>नान ओरु तनियार निर्बनत्तिल वेलै सेय्गिरेन.</t>
+  </si>
+  <si>
+    <t>Where do you work?</t>
+  </si>
+  <si>
+    <t>I work in a private company.</t>
+  </si>
+  <si>
+    <t>அங்கே நீங்கள் எத்தனை ஆண்டுகளாக வேலை செய்கிறீர்கள்?</t>
+  </si>
+  <si>
+    <t>நான் அங்கே மூன்று ஆண்டுகளாக வேலை செய்கிறேன்.</t>
+  </si>
+  <si>
+    <t>अंगॆ नींगल एत्तनै आंडुगळागा वेलै सेय्गिरीर्गल?</t>
+  </si>
+  <si>
+    <t>नान अंगॆ मून्द्रु आंडुगळागा वेलै सेय्गिरेन.</t>
+  </si>
+  <si>
+    <t>How long have you been working there?</t>
+  </si>
+  <si>
+    <t>I have been working there for three years.</t>
+  </si>
+  <si>
+    <t>உங்களுக்கு உங்கள் வேலை பிடிக்குமா?</t>
+  </si>
+  <si>
+    <t>ஆம், எனக்கு என் வேலை பிடிக்கும்.</t>
+  </si>
+  <si>
+    <t>उन्गलुक्कु उन्गल वेलै पिडिक्कुमा?</t>
+  </si>
+  <si>
+    <t>आम, एनक्कु एन वेलै पिडिक्कुम.</t>
+  </si>
+  <si>
+    <t>Do you like your job?</t>
+  </si>
+  <si>
+    <t>Yes, I enjoy my job.</t>
+  </si>
+  <si>
+    <t>உங்கள் வேலையில் முக்கிய பொறுப்புகள் என்ன?</t>
+  </si>
+  <si>
+    <t>தினசரி பணிகளை கவனித்து என் குழுவுடன் ஒருங்கிணைக்கிறேன்.</t>
+  </si>
+  <si>
+    <t>उन्गल वेलैयिल मुख्किय पोऱुप्पुगल एन्न?</t>
+  </si>
+  <si>
+    <t>दिनसरी पणिगलै कवणित्तु एन कुडुवुडन ओरुंगिनैक्किरेन.</t>
+  </si>
+  <si>
+    <t>What are your main responsibilities at work?</t>
+  </si>
+  <si>
+    <t>I handle daily tasks and coordinate with my team.</t>
+  </si>
+  <si>
+    <t>உங்கள் வேலை நேரம் எப்போது தொடங்குகிறது?</t>
+  </si>
+  <si>
+    <t>என் வேலை நேரம் காலை 9 மணிக்கு தொடங்குகிறது.</t>
+  </si>
+  <si>
+    <t>उन्गल वेलै नेरम एप्पोदु तोडंगुगिरदु?</t>
+  </si>
+  <si>
+    <t>एन वेलै नेरम कालै ओम्बदु मणिक्कु तोडंगुगिरदु.</t>
+  </si>
+  <si>
+    <t>What time does your workday start?</t>
+  </si>
+  <si>
+    <t>My workday starts at 9 AM.</t>
+  </si>
+  <si>
+    <t>நீங்கள் பொதுவாக எப்போது வேலை முடிப்பீர்கள்?</t>
+  </si>
+  <si>
+    <t>நான் பொதுவாக மாலை 6 மணிக்கு வேலை முடிப்பேன்.</t>
+  </si>
+  <si>
+    <t>नींगल पोदुवागा एप्पोदु वेलै मुडिप्पीर्गल?</t>
+  </si>
+  <si>
+    <t>नान पोदुवागा मालै आऱु मणिक्कु वेलै मुडिप्पेन.</t>
+  </si>
+  <si>
+    <t>What time do you usually finish work?</t>
+  </si>
+  <si>
+    <t>I usually finish work by 6 PM.</t>
+  </si>
+  <si>
+    <t>உங்கள் வேலை அழுத்தமாக இருக்குமா?</t>
+  </si>
+  <si>
+    <t>சில நேரங்களில் அழுத்தமாக இருக்கும், ஆனால் சமாளிக்க முடியும்.</t>
+  </si>
+  <si>
+    <t>उन्गल वेलै अऴुत्तमागा इरुक्कुमा?</t>
+  </si>
+  <si>
+    <t>सिल नेरंगलिल अऴुत्तमागा इरुक्कुम, आनाल समालिक्क मुडियुम.</t>
+  </si>
+  <si>
+    <t>Is your job stressful?</t>
+  </si>
+  <si>
+    <t>Sometimes it is stressful, but manageable.</t>
+  </si>
+  <si>
+    <t>நீங்கள் வீட்டிலிருந்து வேலை செய்கிறீர்களா அல்லது அலுவலகத்திலா?</t>
+  </si>
+  <si>
+    <t>நான் பெரும்பாலும் அலுவலகத்திலிருந்து வேலை செய்கிறேன்.</t>
+  </si>
+  <si>
+    <t>नींगल वीट्टिलिरुंदु वेलै सेय्गिरीर्गला अल्लदु अलुवलगत्तिला?</t>
+  </si>
+  <si>
+    <t>नान पेरुम्बालुम अलुवलगत्तिलिरुंदु वेलै सेय्गिरेन.</t>
+  </si>
+  <si>
+    <t>Do you work from home or office?</t>
+  </si>
+  <si>
+    <t>I mostly work from the office.</t>
+  </si>
+  <si>
+    <t>வேலை அழுத்தத்தை நீங்கள் எப்படி சமாளிக்கிறீர்கள்?</t>
+  </si>
+  <si>
+    <t>நான் பணிகளை திட்டமிட்டு சிறிய இடைவெளிகளை எடுக்கிறேன்.</t>
+  </si>
+  <si>
+    <t>वेलै अऴुत्तत्तै नींगल एप्पडी समालिक्किरीर्गल?</t>
+  </si>
+  <si>
+    <t>नान पणिगलै तिट्टमिट्टु सिरिय इडैवेलैगळै एडुक्किरेन.</t>
+  </si>
+  <si>
+    <t>How do you manage work pressure?</t>
+  </si>
+  <si>
+    <t>I plan my tasks and take short breaks.</t>
+  </si>
+  <si>
+    <t>Family &amp; Friends</t>
+  </si>
+  <si>
+    <t>உங்கள் குடும்பத்தில் எத்தனை பேர் இருக்கிறார்கள்?</t>
+  </si>
+  <si>
+    <t>என் குடும்பத்தில் நான்கு பேர் இருக்கிறார்கள்.</t>
+  </si>
+  <si>
+    <t>उन्गल कुडुम्बत्तिल एत्तनै पेर इरुक्किरीर्गल?</t>
+  </si>
+  <si>
+    <t>एन कुडुम्बत्तिल नालु पेर इरुक्किरीर्गल.</t>
+  </si>
+  <si>
+    <t>How many people are there in your family?</t>
+  </si>
+  <si>
+    <t>There are four people in my family.</t>
+  </si>
+  <si>
+    <t>நீங்கள் யாருடன் வாழ்கிறீர்கள்?</t>
+  </si>
+  <si>
+    <t>நான் என் பெற்றோர் மற்றும் சகோதரர்களுடன் வாழ்கிறேன்.</t>
+  </si>
+  <si>
+    <t>नींगल यारुडन वाज़्गिरीर्गल?</t>
+  </si>
+  <si>
+    <t>नान एन पेट्रोर मत्तुम सहोदरर्गलुडन वाज़्गिरेन.</t>
+  </si>
+  <si>
+    <t>Who do you live with?</t>
+  </si>
+  <si>
+    <t>I live with my parents and siblings.</t>
+  </si>
+  <si>
+    <t>உங்களுக்கு உங்கள் குடும்பம் நெருக்கமானதா?</t>
+  </si>
+  <si>
+    <t>ஆம், நாங்கள் அனைவரும் மிகவும் நெருக்கமாக இருக்கிறோம்.</t>
+  </si>
+  <si>
+    <t>उन्गलुक्कु उन्गल कुडुम्बम नेरुक्कमानदा?</t>
+  </si>
+  <si>
+    <t>आम, नांगल अनेवरुम मिगवुम नेरुक्कमागा इरुक्किरोम.</t>
+  </si>
+  <si>
+    <t>Are you close to your family?</t>
+  </si>
+  <si>
+    <t>Yes, we are very close to each other.</t>
+  </si>
+  <si>
+    <t>உங்கள் குடும்பத்தில் மிக மூத்தவர் யார்?</t>
+  </si>
+  <si>
+    <t>என் தாத்தா என் குடும்பத்தில் மிக மூத்தவர்.</t>
+  </si>
+  <si>
+    <t>उन्गल कुडुम्बत्तिल मिग मूत्तवर यार?</t>
+  </si>
+  <si>
+    <t>एन तात्ता एन कुडुम्बत्तिल मिग मूत्तवर.</t>
+  </si>
+  <si>
+    <t>Who is the eldest person in your family?</t>
+  </si>
+  <si>
+    <t>My grandfather is the eldest in my family.</t>
+  </si>
+  <si>
+    <t>உங்கள் தந்தை என்ன வேலை செய்கிறார்?</t>
+  </si>
+  <si>
+    <t>என் தந்தை ஒரு தனியார் நிறுவனத்தில் வேலை செய்கிறார்.</t>
+  </si>
+  <si>
+    <t>उन्गल तन्दै एन्न वेलै सेय्गिरार?</t>
+  </si>
+  <si>
+    <t>एन तन्दै ओरु तनियार निर्बनत्तिल वेलै सेय्गिरार.</t>
+  </si>
+  <si>
+    <t>What does your father do?</t>
+  </si>
+  <si>
+    <t>My father works in a private company.</t>
+  </si>
+  <si>
+    <t>உங்கள் தாய் என்ன செய்கிறார்?</t>
+  </si>
+  <si>
+    <t>என் தாய் ஒரு இல்லத்தரசி.</t>
+  </si>
+  <si>
+    <t>उन्गल ताय एन्न सेय्गिरार?</t>
+  </si>
+  <si>
+    <t>एन ताय ओरु इल्लत्तरसी.</t>
+  </si>
+  <si>
+    <t>What does your mother do?</t>
+  </si>
+  <si>
+    <t>My mother is a homemaker.</t>
+  </si>
+  <si>
+    <t>உங்களுக்கு சகோதரர் அல்லது சகோதரி உள்ளனரா?</t>
+  </si>
+  <si>
+    <t>ஆம், எனக்கு ஒரு இளைய சகோதரி இருக்கிறார்.</t>
+  </si>
+  <si>
+    <t>उन्गलुक्कु सहोदरर अल्लदु सहोदरी उल्लनरा?</t>
+  </si>
+  <si>
+    <t>आम, एनक्कु ओरु इलैय सहोदरी इरुक्किरार.</t>
+  </si>
+  <si>
+    <t>Do you have any brothers or sisters?</t>
+  </si>
+  <si>
+    <t>Yes, I have one younger sister.</t>
+  </si>
+  <si>
+    <t>நீங்கள் உங்கள் குடும்பத்துடன் நேரத்தை எப்படி செலவிடுகிறீர்கள்?</t>
+  </si>
+  <si>
+    <t>நாங்கள் பொதுவாக சேர்ந்து உணவு சாப்பிட்டு பேசுவோம்.</t>
+  </si>
+  <si>
+    <t>नींगल उन्गल कुडुम्बत्तुडन नेरत्तै एप्पडी सेलविटुगिरीर्गल?</t>
+  </si>
+  <si>
+    <t>नांगल पोदुवागा सेरुंदु उणवु साप्पिट्टु पेसुवोम.</t>
+  </si>
+  <si>
+    <t>How do you spend time with your family?</t>
+  </si>
+  <si>
+    <t>We usually have meals together and talk.</t>
+  </si>
+  <si>
+    <t>உங்களுக்கு பல நண்பர்கள் இருக்கிறார்களா?</t>
+  </si>
+  <si>
+    <t>ஆம், எனக்கு சில நெருக்கமான நண்பர்கள் இருக்கிறார்கள்.</t>
+  </si>
+  <si>
+    <t>उन्गलुक्कु पल नण्बर्गल इरुक्किरार्गला?</t>
+  </si>
+  <si>
+    <t>आम, एनक्कु सिल नेरुक्कमान नण्बर्गल इरुक्किरार्गल.</t>
+  </si>
+  <si>
+    <t>Do you have many friends?</t>
+  </si>
+  <si>
+    <t>Yes, I have a few close friends.</t>
+  </si>
+  <si>
+    <t>உங்கள் சிறந்த நண்பரை எப்படி சந்தித்தீர்கள்?</t>
+  </si>
+  <si>
+    <t>நாங்கள் பள்ளியில் சந்தித்தோம்.</t>
+  </si>
+  <si>
+    <t>उन्गल सिरंद नण्बरै एप्पडी संधित्तीर्गल?</t>
+  </si>
+  <si>
+    <t>नांगल पल्लियिल संधित्तोम.</t>
+  </si>
+  <si>
+    <t>How did you meet your best friend?</t>
+  </si>
+  <si>
+    <t>We met in school.</t>
   </si>
 </sst>
 </file>
@@ -960,11 +1737,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -992,36 +1767,36 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -1032,132 +1807,1276 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E9" t="s">
         <v>44</v>
       </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" t="s">
+        <v>156</v>
+      </c>
+      <c r="H27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" t="s">
+        <v>162</v>
+      </c>
+      <c r="H28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" t="s">
+        <v>168</v>
+      </c>
+      <c r="H29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" t="s">
+        <v>180</v>
+      </c>
+      <c r="H31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" t="s">
+        <v>186</v>
+      </c>
+      <c r="G32" t="s">
+        <v>187</v>
+      </c>
+      <c r="H32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" t="s">
+        <v>191</v>
+      </c>
+      <c r="F33" t="s">
+        <v>192</v>
+      </c>
+      <c r="G33" t="s">
+        <v>193</v>
+      </c>
+      <c r="H33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F34" t="s">
+        <v>198</v>
+      </c>
+      <c r="G34" t="s">
+        <v>199</v>
+      </c>
+      <c r="H34" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>201</v>
+      </c>
+      <c r="D35" t="s">
+        <v>202</v>
+      </c>
+      <c r="E35" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" t="s">
+        <v>204</v>
+      </c>
+      <c r="G35" t="s">
+        <v>205</v>
+      </c>
+      <c r="H35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G36" t="s">
+        <v>211</v>
+      </c>
+      <c r="H36" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37" t="s">
+        <v>215</v>
+      </c>
+      <c r="F37" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" t="s">
+        <v>217</v>
+      </c>
+      <c r="H37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" t="s">
+        <v>221</v>
+      </c>
+      <c r="F38" t="s">
+        <v>222</v>
+      </c>
+      <c r="G38" t="s">
+        <v>223</v>
+      </c>
+      <c r="H38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" t="s">
+        <v>226</v>
+      </c>
+      <c r="E39" t="s">
+        <v>227</v>
+      </c>
+      <c r="F39" t="s">
+        <v>228</v>
+      </c>
+      <c r="G39" t="s">
+        <v>229</v>
+      </c>
+      <c r="H39" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>182</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>231</v>
+      </c>
+      <c r="D40" t="s">
+        <v>232</v>
+      </c>
+      <c r="E40" t="s">
+        <v>233</v>
+      </c>
+      <c r="F40" t="s">
+        <v>234</v>
+      </c>
+      <c r="G40" t="s">
+        <v>235</v>
+      </c>
+      <c r="H40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>182</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>237</v>
+      </c>
+      <c r="D41" t="s">
+        <v>238</v>
+      </c>
+      <c r="E41" t="s">
+        <v>239</v>
+      </c>
+      <c r="F41" t="s">
+        <v>240</v>
+      </c>
+      <c r="G41" t="s">
+        <v>241</v>
+      </c>
+      <c r="H41" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>244</v>
+      </c>
+      <c r="D42" t="s">
+        <v>245</v>
+      </c>
+      <c r="E42" t="s">
+        <v>246</v>
+      </c>
+      <c r="F42" t="s">
+        <v>247</v>
+      </c>
+      <c r="G42" t="s">
+        <v>248</v>
+      </c>
+      <c r="H42" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>243</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>250</v>
+      </c>
+      <c r="D43" t="s">
+        <v>251</v>
+      </c>
+      <c r="E43" t="s">
+        <v>252</v>
+      </c>
+      <c r="F43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G43" t="s">
+        <v>254</v>
+      </c>
+      <c r="H43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>243</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>256</v>
+      </c>
+      <c r="D44" t="s">
+        <v>257</v>
+      </c>
+      <c r="E44" t="s">
+        <v>258</v>
+      </c>
+      <c r="F44" t="s">
+        <v>259</v>
+      </c>
+      <c r="G44" t="s">
+        <v>260</v>
+      </c>
+      <c r="H44" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D45" t="s">
+        <v>263</v>
+      </c>
+      <c r="E45" t="s">
+        <v>264</v>
+      </c>
+      <c r="F45" t="s">
+        <v>265</v>
+      </c>
+      <c r="G45" t="s">
+        <v>266</v>
+      </c>
+      <c r="H45" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>243</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>268</v>
+      </c>
+      <c r="D46" t="s">
+        <v>269</v>
+      </c>
+      <c r="E46" t="s">
+        <v>270</v>
+      </c>
+      <c r="F46" t="s">
+        <v>271</v>
+      </c>
+      <c r="G46" t="s">
+        <v>272</v>
+      </c>
+      <c r="H46" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>243</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>274</v>
+      </c>
+      <c r="D47" t="s">
+        <v>275</v>
+      </c>
+      <c r="E47" t="s">
+        <v>276</v>
+      </c>
+      <c r="F47" t="s">
+        <v>277</v>
+      </c>
+      <c r="G47" t="s">
+        <v>278</v>
+      </c>
+      <c r="H47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>243</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>280</v>
+      </c>
+      <c r="D48" t="s">
+        <v>281</v>
+      </c>
+      <c r="E48" t="s">
+        <v>282</v>
+      </c>
+      <c r="F48" t="s">
+        <v>283</v>
+      </c>
+      <c r="G48" t="s">
+        <v>284</v>
+      </c>
+      <c r="H48" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>286</v>
+      </c>
+      <c r="D49" t="s">
+        <v>287</v>
+      </c>
+      <c r="E49" t="s">
+        <v>288</v>
+      </c>
+      <c r="F49" t="s">
+        <v>289</v>
+      </c>
+      <c r="G49" t="s">
+        <v>290</v>
+      </c>
+      <c r="H49" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>243</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>292</v>
+      </c>
+      <c r="D50" t="s">
+        <v>293</v>
+      </c>
+      <c r="E50" t="s">
+        <v>294</v>
+      </c>
+      <c r="F50" t="s">
+        <v>295</v>
+      </c>
+      <c r="G50" t="s">
+        <v>296</v>
+      </c>
+      <c r="H50" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>243</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>298</v>
+      </c>
+      <c r="D51" t="s">
+        <v>299</v>
+      </c>
+      <c r="E51" t="s">
+        <v>300</v>
+      </c>
+      <c r="F51" t="s">
+        <v>301</v>
+      </c>
+      <c r="G51" t="s">
+        <v>302</v>
+      </c>
+      <c r="H51" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
